--- a/RV32IMF.xlsx
+++ b/RV32IMF.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="108">
   <si>
     <t>R-Type</t>
   </si>
@@ -336,13 +336,34 @@
   </si>
   <si>
     <t xml:space="preserve">7'b1010000 </t>
+  </si>
+  <si>
+    <t>FCVT.W.S</t>
+  </si>
+  <si>
+    <t>FCVT.WU.S</t>
+  </si>
+  <si>
+    <t>FCVT.S.W</t>
+  </si>
+  <si>
+    <t>FCVT.S.WU</t>
+  </si>
+  <si>
+    <t>7'b1100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7'b1100000 </t>
+  </si>
+  <si>
+    <t>7'b1101000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,22 +389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -510,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,41 +543,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,33 +881,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="12"/>
-    <col min="2" max="2" width="12.44140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="12"/>
+    <col min="1" max="1" width="8.77734375" style="4"/>
+    <col min="2" max="2" width="13.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -928,10 +922,10 @@
       <c r="D2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1"/>
@@ -964,16 +958,16 @@
       <c r="F3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -994,16 +988,16 @@
       <c r="F4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1024,16 +1018,16 @@
       <c r="F5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1054,16 +1048,16 @@
       <c r="F6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1084,16 +1078,16 @@
       <c r="F7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1114,16 +1108,16 @@
       <c r="F8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1144,16 +1138,16 @@
       <c r="F9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1174,16 +1168,16 @@
       <c r="F10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1236,16 +1230,16 @@
         <v>75</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1267,16 +1261,16 @@
         <v>73</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1298,16 +1292,16 @@
         <v>73</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1329,16 +1323,16 @@
         <v>73</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1360,16 +1354,16 @@
         <v>73</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1391,16 +1385,16 @@
         <v>73</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1422,16 +1416,16 @@
         <v>74</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1453,16 +1447,16 @@
         <v>73</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="13"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1484,35 +1478,35 @@
         <v>73</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="13"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="13"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1534,16 +1528,16 @@
         <v>76</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1565,16 +1559,16 @@
         <v>76</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1596,16 +1590,16 @@
         <v>76</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1627,16 +1621,16 @@
         <v>76</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1689,16 +1683,16 @@
         <v>73</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1720,16 +1714,16 @@
         <v>74</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="14"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1751,16 +1745,16 @@
         <v>76</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1782,16 +1776,16 @@
         <v>76</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1813,16 +1807,16 @@
         <v>76</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="14"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1844,16 +1838,16 @@
         <v>76</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1875,16 +1869,16 @@
         <v>76</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -1906,16 +1900,16 @@
         <v>76</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -1937,16 +1931,16 @@
         <v>76</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1968,35 +1962,35 @@
         <v>76</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="16"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -2049,16 +2043,16 @@
         <v>76</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -2080,35 +2074,35 @@
         <v>76</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -2232,22 +2226,22 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -2262,31 +2256,31 @@
       <c r="D49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="18" t="s">
+      <c r="E49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -2329,25 +2323,25 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -2362,10 +2356,10 @@
       <c r="D54" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2530,76 +2524,156 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="A63" s="1">
+        <v>54</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>57</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>58</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>59</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="F69" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
